--- a/RBI01S.xlsx
+++ b/RBI01S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
   <si>
     <t/>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>B/P JERUK SUNKIST CR</t>
+  </si>
+  <si>
+    <t>20129832</t>
+  </si>
+  <si>
+    <t>APEL CHERRY/STRAWBRY</t>
   </si>
   <si>
     <t>20112666</t>
@@ -703,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1413,7 +1419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -1424,26 +1430,46 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
